--- a/pred_ohlcv/54_21/2020-01-13 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LAMB ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>287367.1353</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>110963.3828999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>87996.84039999993</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>90996.84039999993</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-51089.96365627959</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-39451.96365627959</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-26218.89005627959</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-16218.89005627959</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15218.89005627959</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>8101.261143720407</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>52440.8107437204</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>74233.99044372039</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-84018.36445627961</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>86144.2399437204</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>180165.6583437204</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>265801.8397517311</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>260434.6575517311</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>299716.568646624</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>318047.540346624</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>284779.540346624</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>274779.541146624</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>297891.5653466239</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>296155.7086466239</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>286155.7086466239</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>248508.1748432682</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>250388.1715753924</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>268013.9712640495</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>55655.88696404948</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LAMB ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>171987.1334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>114038.3828999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>110963.3828999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>87996.84039999993</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>90996.84039999993</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>94496.84039999993</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-69466.2100562796</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-77089.96365627959</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-77089.96365627959</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-60589.96365627959</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15218.89005627959</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>8101.261143720407</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>52440.8107437204</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>74233.99044372039</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-25596.14585627961</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-33406.24555627961</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>86144.2399437204</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>180165.6583437204</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>158137.8489437204</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>140477.2733437204</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>142284.2431391085</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>142258.0191391085</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>128146.1987391085</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>276971.0075517311</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>277807.5275517312</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>265801.8397517311</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>260434.6575517311</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>260451.6575517311</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>299716.568646624</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>318047.540346624</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>284779.540346624</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>274779.541146624</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>297891.5653466239</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>297299.906246624</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>296155.7086466239</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>250388.1715753924</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
